--- a/mo/lab_9/Abakirov_MO_LabWork#9(Ver-2)_ПИ-3-15_2017.09.02.xlsx
+++ b/mo/lab_9/Abakirov_MO_LabWork#9(Ver-2)_ПИ-3-15_2017.09.02.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kstu\se_3\mo\lab_9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/kstu/dev/mo/lab_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278C1D9A-0B09-464B-A230-8BE5DD289420}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9090" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -18,18 +19,18 @@
     <sheet name="sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ten</author>
     <author>ten_IG</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1" shapeId="0">
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="1" shapeId="0">
+    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1" shapeId="0">
+    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1" shapeId="0">
+    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -194,13 +195,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ten</author>
     <author>ten_IG</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="1" shapeId="0">
+    <comment ref="H3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -248,12 +249,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ten_IG</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -2343,15 +2344,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2359,15 +2351,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2404,6 +2387,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3432,7 +3433,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3645,7 +3645,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3768,7 +3767,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3923,7 +3921,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4130,7 +4127,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4258,7 +4254,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5473,15 +5468,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>165100</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5489,6 +5484,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5533,15 +5531,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5549,6 +5547,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1272"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F8040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5588,15 +5589,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5604,6 +5605,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1274"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FA040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5658,7 +5662,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3074" name="Chart 2"/>
+        <xdr:cNvPr id="3074" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5690,7 +5700,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3075" name="Chart 3"/>
+        <xdr:cNvPr id="3075" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000030C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5722,7 +5738,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5752,7 +5774,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5846,6 +5874,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5881,6 +5926,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6056,25 +6118,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Worksheet____1"/>
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -6082,7 +6144,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.5" thickBot="1">
+    <row r="2" spans="1:15" ht="14" thickBot="1">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -8464,21 +8526,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Worksheet____2"/>
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -8491,8 +8553,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.5" thickBot="1"/>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="14" thickBot="1"/>
+    <row r="4" spans="1:10" ht="16" thickBot="1">
       <c r="A4" s="37" t="s">
         <v>36</v>
       </c>
@@ -8524,7 +8586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" thickBot="1">
+    <row r="5" spans="1:10" ht="14" thickBot="1">
       <c r="A5" s="42">
         <v>0</v>
       </c>
@@ -9056,7 +9118,7 @@
         <v>1.4662748717146901E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.5" thickBot="1">
+    <row r="21" spans="1:8" ht="14" thickBot="1">
       <c r="A21" s="51">
         <v>16</v>
       </c>
@@ -9098,7 +9160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Worksheet____3"/>
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -9106,17 +9168,17 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" customHeight="1">
@@ -9184,7 +9246,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.5" thickBot="1">
+    <row r="4" spans="1:12" ht="14" thickBot="1">
       <c r="A4" s="97">
         <v>1</v>
       </c>
@@ -9653,7 +9715,7 @@
         <v>0.35151941978629958</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="13.5" thickBot="1">
+    <row r="23" spans="1:10" ht="14" thickBot="1">
       <c r="A23" s="55">
         <v>20</v>
       </c>
@@ -9677,7 +9739,7 @@
         <v>0.36693969621536893</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="13.5" thickBot="1">
+    <row r="24" spans="1:10" ht="14" thickBot="1">
       <c r="H24" s="111">
         <v>2</v>
       </c>
@@ -9686,7 +9748,7 @@
         <v>0.38199329254266751</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="13.5" thickBot="1">
+    <row r="25" spans="1:10" ht="14" thickBot="1">
       <c r="D25">
         <v>0.61791833993546297</v>
       </c>
@@ -9747,7 +9809,7 @@
       <c r="I34" s="149"/>
       <c r="J34" s="150"/>
     </row>
-    <row r="35" spans="7:10" ht="13.5" thickBot="1">
+    <row r="35" spans="7:10" ht="14" thickBot="1">
       <c r="G35" s="151"/>
       <c r="H35" s="152"/>
       <c r="I35" s="152"/>
@@ -9784,15 +9846,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:colOff>165100</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9806,34 +9868,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Worksheet____4"/>
   <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="13" customWidth="1"/>
-    <col min="2" max="3" width="8.5703125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="13" customWidth="1"/>
+    <col min="2" max="3" width="8.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="7" style="13" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="13" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="13" customWidth="1"/>
     <col min="12" max="12" width="12" style="13" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="13"/>
-    <col min="15" max="15" width="20.140625" style="13" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="13"/>
+    <col min="13" max="13" width="9.33203125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="13"/>
+    <col min="15" max="15" width="20.1640625" style="13" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18.75">
+    <row r="1" spans="1:29" ht="18">
       <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
@@ -9887,7 +9949,53 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:29" ht="25.5" customHeight="1"/>
+    <row r="4" spans="1:29" ht="25.5" customHeight="1">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5</v>
+      </c>
+      <c r="F4" s="13">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13">
+        <v>7</v>
+      </c>
+      <c r="H4" s="13">
+        <v>8</v>
+      </c>
+      <c r="I4" s="13">
+        <v>9</v>
+      </c>
+      <c r="J4" s="13">
+        <v>10</v>
+      </c>
+      <c r="K4" s="13">
+        <v>11</v>
+      </c>
+      <c r="L4" s="13">
+        <v>12</v>
+      </c>
+      <c r="M4" s="13">
+        <v>13</v>
+      </c>
+      <c r="N4" s="13">
+        <v>14</v>
+      </c>
+      <c r="O4" s="13">
+        <v>15</v>
+      </c>
+    </row>
     <row r="5" spans="1:29" ht="43.5" customHeight="1" thickBot="1">
       <c r="G5" s="12" t="s">
         <v>10</v>
@@ -9945,15 +10053,15 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="156"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="171"/>
       <c r="H7" s="15">
         <v>1</v>
       </c>
@@ -9971,18 +10079,18 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="159"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="156"/>
       <c r="H8" s="33">
         <f ca="1">IF(H6=1,0,H8+1)</f>
-        <v>44837</v>
+        <v>46637</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -9995,15 +10103,15 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="162"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="174"/>
       <c r="H9" s="29" t="s">
         <v>16</v>
       </c>
@@ -10029,16 +10137,16 @@
         <v>1.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="14.25">
-      <c r="A10" s="157" t="s">
+    <row r="10" spans="1:29" ht="15">
+      <c r="A10" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="159"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="156"/>
       <c r="H10" s="33">
         <f ca="1">IF($H$8=0,H7,H12)</f>
         <v>2001.9313811430361</v>
@@ -10086,15 +10194,15 @@
       <c r="AC10" s="11"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="157" t="s">
+      <c r="A11" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="159"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="156"/>
       <c r="H11" s="63">
         <f ca="1">$L$6*(H10-sheet1!$D$5)/(H10^(2*sheet1!$E$5))</f>
         <v>1.5909747630962288E+35</v>
@@ -10132,16 +10240,16 @@
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
     </row>
-    <row r="12" spans="1:29" ht="14.25">
-      <c r="A12" s="157" t="s">
+    <row r="12" spans="1:29" ht="15">
+      <c r="A12" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="158"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="159"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="156"/>
       <c r="H12" s="33">
         <f ca="1">IF($J$11&gt;$K$11,H10,J10)</f>
         <v>2001.9313811430361</v>
@@ -10188,16 +10296,16 @@
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
     </row>
-    <row r="13" spans="1:29" ht="13.5" thickBot="1">
-      <c r="A13" s="169" t="s">
+    <row r="13" spans="1:29" ht="14" thickBot="1">
+      <c r="A13" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="171"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="165"/>
       <c r="H13" s="36" t="str">
         <f ca="1">IF(H6=1,"Программа в исходном состоянии",IF(ABS((I12-H12)/H12)&lt;I6,"Решение найдено с желаемой точностью!","Продолжайте итерации, щелкая по кнопке &lt;F9&gt;"))</f>
         <v>Решение найдено с желаемой точностью!</v>
@@ -10227,15 +10335,15 @@
       <c r="AC13" s="11"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="172" t="s">
+      <c r="A14" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="174"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="168"/>
       <c r="H14" s="87">
         <f ca="1">IF($H$8=0,$H$10,IF(ABS((I12-H12)/H12)&lt;I6,H14,IF(H11&lt;I11,H10,I10)))</f>
         <v>2001.93138114321</v>
@@ -10268,15 +10376,15 @@
       <c r="AC14" s="11"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="166" t="s">
+      <c r="A15" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="168"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="162"/>
       <c r="H15" s="88">
         <f ca="1">sheet1!B5/(H14+H14*sheet1!C5)^(2*sheet1!E5)</f>
         <v>4.1656036703086554E+32</v>
@@ -10306,15 +10414,15 @@
       <c r="AC15" s="11"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="168"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="162"/>
       <c r="H16" s="87">
         <f ca="1">IF($H$8=0,$H$11,IF(ABS((I12-H12)/H12)&lt;I6,H16,IF(H11&lt;I11,H11,I11)))</f>
         <v>1.5909747630962185E+35</v>
@@ -10344,15 +10452,15 @@
       <c r="AC16" s="11"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="166" t="s">
+      <c r="A17" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="168"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="162"/>
       <c r="H17" s="88">
         <f ca="1">H15*sheet1!D5</f>
         <v>6.7482779459000216E+35</v>
@@ -10382,15 +10490,15 @@
       <c r="AC17" s="11"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="167"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="168"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="162"/>
       <c r="H18" s="89">
         <f ca="1">IF($H$8=0,0,IF(ABS((I12-H12)/H12)&lt;I6,H18,H8))</f>
         <v>98</v>
@@ -10419,16 +10527,16 @@
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
     </row>
-    <row r="19" spans="1:29" ht="15" thickBot="1">
-      <c r="A19" s="163" t="s">
+    <row r="19" spans="1:29" ht="16" thickBot="1">
+      <c r="A19" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="164"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="165"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="159"/>
       <c r="H19" s="90">
         <f ca="1">IF(ABS((I12-H12)/H12)&lt;I6,H19,I12-H12)</f>
         <v>2.0440893422346562E-10</v>
@@ -12789,6 +12897,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A15:G15"/>
@@ -12797,11 +12910,6 @@
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I13:K13">
@@ -12846,15 +12954,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>215900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12868,15 +12976,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12890,7 +12998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H76"/>
   <sheetViews>
@@ -12898,15 +13006,15 @@
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="56" t="s">
         <v>14</v>
       </c>
@@ -12967,7 +13075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.5" thickBot="1">
+    <row r="10" spans="1:8" ht="14" thickBot="1">
       <c r="A10" s="59" t="s">
         <v>52</v>
       </c>
@@ -12979,7 +13087,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="23.25" thickBot="1">
+    <row r="11" spans="1:8" ht="25" thickBot="1">
       <c r="A11" s="93" t="s">
         <v>1</v>
       </c>
@@ -13317,7 +13425,7 @@
         <v>100000000000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.5" thickBot="1">
+    <row r="24" spans="1:8" ht="14" thickBot="1">
       <c r="A24" s="80">
         <v>13</v>
       </c>
@@ -13352,7 +13460,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="92"/>
     </row>
-    <row r="26" spans="1:8" ht="13.5" thickBot="1">
+    <row r="26" spans="1:8" ht="14" thickBot="1">
       <c r="A26" s="59" t="s">
         <v>51</v>
       </c>
@@ -13364,7 +13472,7 @@
       <c r="G26" s="92"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="23.25" thickBot="1">
+    <row r="27" spans="1:8" ht="25" thickBot="1">
       <c r="A27" s="93" t="s">
         <v>1</v>
       </c>
@@ -13676,7 +13784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.5" thickBot="1">
+    <row r="39" spans="1:8" ht="14" thickBot="1">
       <c r="A39" s="80">
         <v>12</v>
       </c>
